--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value616.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value616.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.497790310958184</v>
+        <v>0.8957745432853699</v>
       </c>
       <c r="B1">
-        <v>3.447904337398335</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.844957200368317</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.498241658346147</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.8889831500843515</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
